--- a/認知行動療法.xlsx
+++ b/認知行動療法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawasachito/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C223F-8D8D-FF42-9BF0-6CD09EE0B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8ECBD-2D8C-A543-BEAE-6EBD4FF486D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" xr2:uid="{2C70A69D-1916-C84E-A3B5-B75A654A2724}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" activeTab="2" xr2:uid="{2C70A69D-1916-C84E-A3B5-B75A654A2724}"/>
   </bookViews>
   <sheets>
     <sheet name="JIBT-R 質問紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="247">
   <si>
     <t>私はすべての点で有能でなければならない。</t>
   </si>
@@ -917,6 +917,44 @@
     <t>健康</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動思考検証シート</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動思考</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根拠と反証</t>
+    <rPh sb="0" eb="2">
+      <t>コンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根拠</t>
+    <rPh sb="0" eb="2">
+      <t>コンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反証</t>
+    <rPh sb="0" eb="2">
+      <t>ハンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1145,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,13 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1192,9 +1224,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,13 +1283,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1269,31 +1304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,6 +1324,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2157C73A-659A-3149-A1C4-7367DF2FCB70}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -1864,33 +1935,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1908,12 +1979,12 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1931,12 +2002,12 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1954,12 +2025,12 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1977,12 +2048,12 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2000,12 +2071,12 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2023,12 +2094,12 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2046,12 +2117,12 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2069,12 +2140,12 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2092,12 +2163,12 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2115,12 +2186,12 @@
       <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2138,12 +2209,12 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2161,12 +2232,12 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2184,12 +2255,12 @@
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2207,12 +2278,12 @@
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2230,12 +2301,12 @@
       <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2253,12 +2324,12 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2276,12 +2347,12 @@
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2299,12 +2370,12 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2322,12 +2393,12 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2345,12 +2416,12 @@
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2368,12 +2439,12 @@
       <c r="G22">
         <v>4</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2391,12 +2462,12 @@
       <c r="G23">
         <v>4</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2414,12 +2485,12 @@
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2437,12 +2508,12 @@
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2460,12 +2531,12 @@
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2483,12 +2554,12 @@
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2506,12 +2577,12 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2529,12 +2600,12 @@
       <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2552,12 +2623,12 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2575,12 +2646,12 @@
       <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2598,12 +2669,12 @@
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2621,12 +2692,12 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2644,12 +2715,12 @@
       <c r="G34">
         <v>4</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2667,12 +2738,12 @@
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2690,12 +2761,12 @@
       <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2713,12 +2784,12 @@
       <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2736,31 +2807,31 @@
       <c r="G38">
         <v>4</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="22">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24">
-        <v>1</v>
-      </c>
-      <c r="E39" s="24">
-        <v>2</v>
-      </c>
-      <c r="F39" s="24">
-        <v>3</v>
-      </c>
-      <c r="G39" s="24">
-        <v>4</v>
-      </c>
-      <c r="H39" s="28">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21">
+        <v>2</v>
+      </c>
+      <c r="F39" s="21">
+        <v>3</v>
+      </c>
+      <c r="G39" s="21">
+        <v>4</v>
+      </c>
+      <c r="H39" s="25">
         <v>5</v>
       </c>
     </row>
@@ -2795,64 +2866,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2876,10 +2947,10 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="32" t="s">
         <v>195</v>
       </c>
       <c r="M2" t="s">
@@ -2904,12 +2975,12 @@
       <c r="S2">
         <v>4.47</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="21">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2933,10 +3004,10 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="32"/>
       <c r="M3" t="s">
         <v>198</v>
       </c>
@@ -2959,12 +3030,12 @@
       <c r="S3">
         <v>4.03</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2988,10 +3059,10 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="32"/>
       <c r="M4" t="s">
         <v>199</v>
       </c>
@@ -3014,12 +3085,12 @@
       <c r="S4">
         <v>2.97</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3043,10 +3114,10 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="32"/>
       <c r="M5" t="s">
         <v>200</v>
       </c>
@@ -3069,12 +3140,12 @@
       <c r="S5">
         <v>4.12</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="21">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3098,10 +3169,10 @@
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="32"/>
       <c r="M6" t="s">
         <v>201</v>
       </c>
@@ -3124,12 +3195,12 @@
       <c r="S6">
         <v>3.89</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="21">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3153,10 +3224,10 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="32"/>
       <c r="M7" t="s">
         <v>202</v>
       </c>
@@ -3179,12 +3250,12 @@
       <c r="S7">
         <v>2.11</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="21">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3208,10 +3279,10 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="32" t="s">
         <v>196</v>
       </c>
       <c r="M8" t="s">
@@ -3236,12 +3307,12 @@
       <c r="S8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="42">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3265,10 +3336,10 @@
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="32"/>
       <c r="M9" t="s">
         <v>204</v>
       </c>
@@ -3291,12 +3362,12 @@
       <c r="S9">
         <v>3.89</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="21">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3320,10 +3391,10 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="32"/>
       <c r="M10" t="s">
         <v>205</v>
       </c>
@@ -3346,12 +3417,12 @@
       <c r="S10">
         <v>4.3</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="21">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3375,10 +3446,10 @@
       <c r="I11">
         <v>6</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="32" t="s">
         <v>206</v>
       </c>
       <c r="M11" t="s">
@@ -3403,12 +3474,12 @@
       <c r="S11">
         <v>4.08</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="21">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3432,10 +3503,10 @@
       <c r="I12">
         <v>6</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="32"/>
       <c r="M12" t="s">
         <v>208</v>
       </c>
@@ -3458,12 +3529,12 @@
       <c r="S12">
         <v>3.25</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="21">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3487,10 +3558,10 @@
       <c r="I13">
         <v>6</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="32" t="s">
         <v>209</v>
       </c>
       <c r="M13" t="s">
@@ -3515,12 +3586,12 @@
       <c r="S13">
         <v>3.72</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="21">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3544,10 +3615,10 @@
       <c r="I14">
         <v>6</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="32"/>
       <c r="M14" t="s">
         <v>211</v>
       </c>
@@ -3570,12 +3641,12 @@
       <c r="S14">
         <v>4.8600000000000003</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="21">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3599,40 +3670,40 @@
       <c r="I15">
         <v>6</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="N15" s="24" t="e">
+      <c r="N15" s="21" t="e">
         <f>AVERAGEIF(J:J,"HA",C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="24">
-        <v>6</v>
-      </c>
-      <c r="P15" s="24">
+      <c r="O15" s="21">
+        <v>6</v>
+      </c>
+      <c r="P15" s="21">
         <v>5.16</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="21">
         <v>3.6</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="21">
         <v>2.77</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="42">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3656,12 +3727,12 @@
       <c r="I16">
         <v>6</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3685,12 +3756,12 @@
       <c r="I17">
         <v>6</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3714,12 +3785,12 @@
       <c r="I18">
         <v>6</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="42">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3743,12 +3814,12 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3772,12 +3843,12 @@
       <c r="I20">
         <v>6</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3801,12 +3872,12 @@
       <c r="I21">
         <v>6</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3830,12 +3901,12 @@
       <c r="I22">
         <v>6</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3859,12 +3930,12 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3888,12 +3959,12 @@
       <c r="I24">
         <v>6</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3917,12 +3988,12 @@
       <c r="I25">
         <v>6</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3946,12 +4017,12 @@
       <c r="I26">
         <v>6</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3975,12 +4046,12 @@
       <c r="I27">
         <v>6</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="42">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4004,12 +4075,12 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4033,12 +4104,12 @@
       <c r="I29">
         <v>6</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4062,12 +4133,12 @@
       <c r="I30">
         <v>6</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4091,12 +4162,12 @@
       <c r="I31">
         <v>6</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4120,12 +4191,12 @@
       <c r="I32">
         <v>6</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4149,12 +4220,12 @@
       <c r="I33">
         <v>6</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4178,12 +4249,12 @@
       <c r="I34">
         <v>6</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="42">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4207,12 +4278,12 @@
       <c r="I35">
         <v>6</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4236,12 +4307,12 @@
       <c r="I36">
         <v>6</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4265,12 +4336,12 @@
       <c r="I37">
         <v>6</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4294,12 +4365,12 @@
       <c r="I38">
         <v>6</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4323,12 +4394,12 @@
       <c r="I39">
         <v>6</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4352,12 +4423,12 @@
       <c r="I40">
         <v>6</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="42">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4381,12 +4452,12 @@
       <c r="I41">
         <v>6</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4410,12 +4481,12 @@
       <c r="I42">
         <v>6</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4439,12 +4510,12 @@
       <c r="I43">
         <v>6</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4468,12 +4539,12 @@
       <c r="I44">
         <v>6</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4497,12 +4568,12 @@
       <c r="I45">
         <v>6</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="42">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4526,12 +4597,12 @@
       <c r="I46">
         <v>6</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4555,12 +4626,12 @@
       <c r="I47">
         <v>6</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4584,12 +4655,12 @@
       <c r="I48">
         <v>6</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4613,12 +4684,12 @@
       <c r="I49">
         <v>6</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4642,12 +4713,12 @@
       <c r="I50">
         <v>6</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4671,12 +4742,12 @@
       <c r="I51">
         <v>6</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4700,12 +4771,12 @@
       <c r="I52">
         <v>6</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="63">
-      <c r="A53" s="21">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4729,12 +4800,12 @@
       <c r="I53">
         <v>6</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="21">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4758,12 +4829,12 @@
       <c r="I54">
         <v>6</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="21">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4787,12 +4858,12 @@
       <c r="I55">
         <v>6</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="21">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4816,12 +4887,12 @@
       <c r="I56">
         <v>6</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="21">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4845,12 +4916,12 @@
       <c r="I57">
         <v>6</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="21">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4874,12 +4945,12 @@
       <c r="I58">
         <v>6</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="21">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4903,12 +4974,12 @@
       <c r="I59">
         <v>6</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="21">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4932,12 +5003,12 @@
       <c r="I60">
         <v>6</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="21">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4961,12 +5032,12 @@
       <c r="I61">
         <v>6</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="21">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4990,12 +5061,12 @@
       <c r="I62">
         <v>6</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="21">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5019,12 +5090,12 @@
       <c r="I63">
         <v>6</v>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="21">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5048,12 +5119,12 @@
       <c r="I64">
         <v>6</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="21">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5077,12 +5148,12 @@
       <c r="I65">
         <v>6</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="21">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5106,12 +5177,12 @@
       <c r="I66">
         <v>6</v>
       </c>
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="21">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5135,12 +5206,12 @@
       <c r="I67">
         <v>6</v>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="21">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5164,12 +5235,12 @@
       <c r="I68">
         <v>6</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="21">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5193,12 +5264,12 @@
       <c r="I69">
         <v>6</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="21">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5222,12 +5293,12 @@
       <c r="I70">
         <v>6</v>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="21">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5251,12 +5322,12 @@
       <c r="I71">
         <v>6</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="21">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5280,12 +5351,12 @@
       <c r="I72">
         <v>6</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="21">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5309,12 +5380,12 @@
       <c r="I73">
         <v>6</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="21">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5338,12 +5409,12 @@
       <c r="I74">
         <v>6</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="21">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5367,12 +5438,12 @@
       <c r="I75">
         <v>6</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="21">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5396,12 +5467,12 @@
       <c r="I76">
         <v>6</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="42">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5425,12 +5496,12 @@
       <c r="I77">
         <v>6</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="21">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5454,12 +5525,12 @@
       <c r="I78">
         <v>6</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="21">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5483,12 +5554,12 @@
       <c r="I79">
         <v>6</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="21">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5512,12 +5583,12 @@
       <c r="I80">
         <v>6</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="21">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5541,12 +5612,12 @@
       <c r="I81">
         <v>6</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="21">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5570,12 +5641,12 @@
       <c r="I82">
         <v>6</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="42">
-      <c r="A83" s="21">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5599,12 +5670,12 @@
       <c r="I83">
         <v>6</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="42">
-      <c r="A84" s="21">
+      <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5628,12 +5699,12 @@
       <c r="I84">
         <v>6</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="21">
+      <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5657,12 +5728,12 @@
       <c r="I85">
         <v>6</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="21">
+      <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5686,12 +5757,12 @@
       <c r="I86">
         <v>6</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="21">
+      <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5715,12 +5786,12 @@
       <c r="I87">
         <v>6</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="21">
+      <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5744,12 +5815,12 @@
       <c r="I88">
         <v>6</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="21">
+      <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5773,12 +5844,12 @@
       <c r="I89">
         <v>6</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="21">
+      <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5802,12 +5873,12 @@
       <c r="I90">
         <v>6</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="42">
-      <c r="A91" s="21">
+      <c r="A91" s="18">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5831,12 +5902,12 @@
       <c r="I91">
         <v>6</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="21">
+      <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5860,12 +5931,12 @@
       <c r="I92">
         <v>6</v>
       </c>
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="21">
+      <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5889,12 +5960,12 @@
       <c r="I93">
         <v>6</v>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="21">
+      <c r="A94" s="18">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5918,12 +5989,12 @@
       <c r="I94">
         <v>6</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="21">
+      <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5947,12 +6018,12 @@
       <c r="I95">
         <v>6</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="21">
+      <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5976,12 +6047,12 @@
       <c r="I96">
         <v>6</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="21">
+      <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6005,12 +6076,12 @@
       <c r="I97">
         <v>6</v>
       </c>
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="21">
+      <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6034,12 +6105,12 @@
       <c r="I98">
         <v>6</v>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="21">
+      <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6063,12 +6134,12 @@
       <c r="I99">
         <v>6</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="21">
+      <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6092,12 +6163,12 @@
       <c r="I100">
         <v>6</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="21">
+      <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6121,12 +6192,12 @@
       <c r="I101">
         <v>6</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="21">
+      <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6150,12 +6221,12 @@
       <c r="I102">
         <v>6</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="21">
+      <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6179,12 +6250,12 @@
       <c r="I103">
         <v>6</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="21">
+      <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6208,12 +6279,12 @@
       <c r="I104">
         <v>6</v>
       </c>
-      <c r="J104" s="12" t="s">
+      <c r="J104" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="42">
-      <c r="A105" s="21">
+      <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6237,12 +6308,12 @@
       <c r="I105">
         <v>6</v>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="21">
+      <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -6266,12 +6337,12 @@
       <c r="I106">
         <v>6</v>
       </c>
-      <c r="J106" s="12" t="s">
+      <c r="J106" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="21">
+      <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6295,12 +6366,12 @@
       <c r="I107">
         <v>6</v>
       </c>
-      <c r="J107" s="12" t="s">
+      <c r="J107" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="21">
+      <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -6324,12 +6395,12 @@
       <c r="I108">
         <v>6</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="42">
-      <c r="A109" s="21">
+      <c r="A109" s="18">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -6353,12 +6424,12 @@
       <c r="I109">
         <v>6</v>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="J109" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="21">
+      <c r="A110" s="18">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -6382,12 +6453,12 @@
       <c r="I110">
         <v>6</v>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="21">
+      <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -6411,12 +6482,12 @@
       <c r="I111">
         <v>6</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J111" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="21">
+      <c r="A112" s="18">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -6440,12 +6511,12 @@
       <c r="I112">
         <v>6</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="21">
+      <c r="A113" s="18">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -6469,12 +6540,12 @@
       <c r="I113">
         <v>6</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="21">
+      <c r="A114" s="18">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -6498,12 +6569,12 @@
       <c r="I114">
         <v>6</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="21">
+      <c r="A115" s="18">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -6527,12 +6598,12 @@
       <c r="I115">
         <v>6</v>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="42">
-      <c r="A116" s="21">
+      <c r="A116" s="18">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -6556,12 +6627,12 @@
       <c r="I116">
         <v>6</v>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="21">
+      <c r="A117" s="18">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -6585,12 +6656,12 @@
       <c r="I117">
         <v>6</v>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="42">
-      <c r="A118" s="21">
+      <c r="A118" s="18">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -6614,12 +6685,12 @@
       <c r="I118">
         <v>6</v>
       </c>
-      <c r="J118" s="12" t="s">
+      <c r="J118" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="21">
+      <c r="A119" s="18">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -6643,12 +6714,12 @@
       <c r="I119">
         <v>6</v>
       </c>
-      <c r="J119" s="12" t="s">
+      <c r="J119" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="21">
+      <c r="A120" s="18">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -6672,12 +6743,12 @@
       <c r="I120">
         <v>6</v>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="21">
+      <c r="A121" s="18">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -6701,12 +6772,12 @@
       <c r="I121">
         <v>6</v>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="42">
-      <c r="A122" s="21">
+      <c r="A122" s="18">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6730,12 +6801,12 @@
       <c r="I122">
         <v>6</v>
       </c>
-      <c r="J122" s="12" t="s">
+      <c r="J122" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="21">
+      <c r="A123" s="18">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6759,12 +6830,12 @@
       <c r="I123">
         <v>6</v>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="21">
+      <c r="A124" s="18">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6788,37 +6859,37 @@
       <c r="I124">
         <v>6</v>
       </c>
-      <c r="J124" s="12" t="s">
+      <c r="J124" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="22">
+      <c r="A125" s="19">
         <v>124</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24">
-        <v>1</v>
-      </c>
-      <c r="E125" s="24">
-        <v>2</v>
-      </c>
-      <c r="F125" s="24">
-        <v>3</v>
-      </c>
-      <c r="G125" s="24">
-        <v>4</v>
-      </c>
-      <c r="H125" s="24">
-        <v>5</v>
-      </c>
-      <c r="I125" s="24">
-        <v>6</v>
-      </c>
-      <c r="J125" s="13" t="s">
+      <c r="C125" s="21"/>
+      <c r="D125" s="21">
+        <v>1</v>
+      </c>
+      <c r="E125" s="21">
+        <v>2</v>
+      </c>
+      <c r="F125" s="21">
+        <v>3</v>
+      </c>
+      <c r="G125" s="21">
+        <v>4</v>
+      </c>
+      <c r="H125" s="21">
+        <v>5</v>
+      </c>
+      <c r="I125" s="21">
+        <v>6</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6907,11 +6978,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5BA6BA-A7FD-554A-BE9E-88357F29AABB}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A13"/>
+      <selection pane="topRight" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6925,491 +6996,603 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21">
       <c r="A1" s="47" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+        <v>243</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="48"/>
-      <c r="B2" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="38"/>
+      <c r="B2" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="48"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="1:10" ht="21">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="48"/>
-      <c r="B4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="38"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="48"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" ht="21">
+      <c r="B5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="48"/>
-      <c r="B6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="48"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="48"/>
-      <c r="B8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="48"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="59">
+        <f>C1</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="59">
+        <f t="shared" ref="E9:J9" si="0">E1</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="59">
+        <f t="shared" ref="G9:J9" si="1">G1</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="59">
+        <f t="shared" ref="I9:J9" si="2">I1</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="48"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="35" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="35" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="48"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="48"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="35" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="49"/>
-      <c r="B13" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="48"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="21">
+      <c r="A14" s="48"/>
+      <c r="B14" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="48"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="B15" s="62"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" ht="21">
       <c r="A16" s="48"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="48"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="B17" s="62"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" ht="21">
       <c r="A18" s="48"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="48"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="B19" s="62"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" ht="21">
       <c r="A20" s="48"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="4" t="s">
+      <c r="B20" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" ht="21">
+      <c r="A21" s="55"/>
+      <c r="B21" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="48"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="48"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="48"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="48"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="21">
+      <c r="A28" s="55"/>
+      <c r="B28" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" ht="63">
-      <c r="A23" s="5" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="63">
+      <c r="A29" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" ht="39" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B30" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="66"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="83">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A1:A8"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7432,232 +7615,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <f>D2-D1</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <f>D5-D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <f>D8-D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <f>D11-D10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <f>D14-D13</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="34" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <f>D17-D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="34" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <f>D20-D19</f>
         <v>0</v>
       </c>

--- a/認知行動療法.xlsx
+++ b/認知行動療法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawasachito/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8ECBD-2D8C-A543-BEAE-6EBD4FF486D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB03D2-FB66-9C48-8BF0-15B1818109AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" activeTab="2" xr2:uid="{2C70A69D-1916-C84E-A3B5-B75A654A2724}"/>
   </bookViews>
@@ -1183,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,16 +1277,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1304,7 +1358,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,64 +1382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1935,33 +1938,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1979,12 +1982,12 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2002,12 +2005,12 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2025,12 +2028,12 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2048,12 +2051,12 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2071,12 +2074,12 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2094,12 +2097,12 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2117,12 +2120,12 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2140,12 +2143,12 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2163,12 +2166,12 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2186,12 +2189,12 @@
       <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2209,12 +2212,12 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2232,12 +2235,12 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2255,12 +2258,12 @@
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2278,12 +2281,12 @@
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2301,12 +2304,12 @@
       <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2324,12 +2327,12 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2347,12 +2350,12 @@
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2370,12 +2373,12 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2393,12 +2396,12 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2416,12 +2419,12 @@
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2439,12 +2442,12 @@
       <c r="G22">
         <v>4</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2462,12 +2465,12 @@
       <c r="G23">
         <v>4</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2485,12 +2488,12 @@
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2508,12 +2511,12 @@
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2531,12 +2534,12 @@
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2554,12 +2557,12 @@
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2577,12 +2580,12 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2600,12 +2603,12 @@
       <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2623,12 +2626,12 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2646,12 +2649,12 @@
       <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2669,12 +2672,12 @@
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2692,12 +2695,12 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2715,12 +2718,12 @@
       <c r="G34">
         <v>4</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2738,12 +2741,12 @@
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2761,12 +2764,12 @@
       <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2784,12 +2787,12 @@
       <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2807,31 +2810,31 @@
       <c r="G38">
         <v>4</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21">
-        <v>1</v>
-      </c>
-      <c r="E39" s="21">
-        <v>2</v>
-      </c>
-      <c r="F39" s="21">
-        <v>3</v>
-      </c>
-      <c r="G39" s="21">
-        <v>4</v>
-      </c>
-      <c r="H39" s="25">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20">
+        <v>3</v>
+      </c>
+      <c r="G39" s="20">
+        <v>4</v>
+      </c>
+      <c r="H39" s="24">
         <v>5</v>
       </c>
     </row>
@@ -2866,64 +2869,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2947,10 +2950,10 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="41" t="s">
         <v>195</v>
       </c>
       <c r="M2" t="s">
@@ -2975,12 +2978,12 @@
       <c r="S2">
         <v>4.47</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="21">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3004,10 +3007,10 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="32"/>
+      <c r="L3" s="41"/>
       <c r="M3" t="s">
         <v>198</v>
       </c>
@@ -3030,12 +3033,12 @@
       <c r="S3">
         <v>4.03</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3059,10 +3062,10 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="41"/>
       <c r="M4" t="s">
         <v>199</v>
       </c>
@@ -3085,12 +3088,12 @@
       <c r="S4">
         <v>2.97</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3114,10 +3117,10 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="32"/>
+      <c r="L5" s="41"/>
       <c r="M5" t="s">
         <v>200</v>
       </c>
@@ -3140,12 +3143,12 @@
       <c r="S5">
         <v>4.12</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="21">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3169,10 +3172,10 @@
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="41"/>
       <c r="M6" t="s">
         <v>201</v>
       </c>
@@ -3195,12 +3198,12 @@
       <c r="S6">
         <v>3.89</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="21">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3224,10 +3227,10 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="32"/>
+      <c r="L7" s="41"/>
       <c r="M7" t="s">
         <v>202</v>
       </c>
@@ -3250,12 +3253,12 @@
       <c r="S7">
         <v>2.11</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="21">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3279,10 +3282,10 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="41" t="s">
         <v>196</v>
       </c>
       <c r="M8" t="s">
@@ -3307,12 +3310,12 @@
       <c r="S8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="42">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3336,10 +3339,10 @@
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="41"/>
       <c r="M9" t="s">
         <v>204</v>
       </c>
@@ -3362,12 +3365,12 @@
       <c r="S9">
         <v>3.89</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="21">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3391,10 +3394,10 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="41"/>
       <c r="M10" t="s">
         <v>205</v>
       </c>
@@ -3417,12 +3420,12 @@
       <c r="S10">
         <v>4.3</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="21">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3446,10 +3449,10 @@
       <c r="I11">
         <v>6</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="41" t="s">
         <v>206</v>
       </c>
       <c r="M11" t="s">
@@ -3474,12 +3477,12 @@
       <c r="S11">
         <v>4.08</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="21">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3503,10 +3506,10 @@
       <c r="I12">
         <v>6</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="41"/>
       <c r="M12" t="s">
         <v>208</v>
       </c>
@@ -3529,12 +3532,12 @@
       <c r="S12">
         <v>3.25</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="21">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3558,10 +3561,10 @@
       <c r="I13">
         <v>6</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="41" t="s">
         <v>209</v>
       </c>
       <c r="M13" t="s">
@@ -3586,12 +3589,12 @@
       <c r="S13">
         <v>3.72</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="21">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3615,10 +3618,10 @@
       <c r="I14">
         <v>6</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="41"/>
       <c r="M14" t="s">
         <v>211</v>
       </c>
@@ -3641,12 +3644,12 @@
       <c r="S14">
         <v>4.8600000000000003</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="21">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3670,40 +3673,40 @@
       <c r="I15">
         <v>6</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="N15" s="21" t="e">
+      <c r="N15" s="20" t="e">
         <f>AVERAGEIF(J:J,"HA",C:C)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="21">
-        <v>6</v>
-      </c>
-      <c r="P15" s="21">
+      <c r="O15" s="20">
+        <v>6</v>
+      </c>
+      <c r="P15" s="20">
         <v>5.16</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <v>3.6</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>2.77</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="42">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3727,12 +3730,12 @@
       <c r="I16">
         <v>6</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3756,12 +3759,12 @@
       <c r="I17">
         <v>6</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3785,12 +3788,12 @@
       <c r="I18">
         <v>6</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="42">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3814,12 +3817,12 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3843,12 +3846,12 @@
       <c r="I20">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3872,12 +3875,12 @@
       <c r="I21">
         <v>6</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3901,12 +3904,12 @@
       <c r="I22">
         <v>6</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3930,12 +3933,12 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3959,12 +3962,12 @@
       <c r="I24">
         <v>6</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3988,12 +3991,12 @@
       <c r="I25">
         <v>6</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4017,12 +4020,12 @@
       <c r="I26">
         <v>6</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4046,12 +4049,12 @@
       <c r="I27">
         <v>6</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="42">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4075,12 +4078,12 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4104,12 +4107,12 @@
       <c r="I29">
         <v>6</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4133,12 +4136,12 @@
       <c r="I30">
         <v>6</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4162,12 +4165,12 @@
       <c r="I31">
         <v>6</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4191,12 +4194,12 @@
       <c r="I32">
         <v>6</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4220,12 +4223,12 @@
       <c r="I33">
         <v>6</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4249,12 +4252,12 @@
       <c r="I34">
         <v>6</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="42">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4278,12 +4281,12 @@
       <c r="I35">
         <v>6</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4307,12 +4310,12 @@
       <c r="I36">
         <v>6</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4336,12 +4339,12 @@
       <c r="I37">
         <v>6</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4365,12 +4368,12 @@
       <c r="I38">
         <v>6</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4394,12 +4397,12 @@
       <c r="I39">
         <v>6</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4423,12 +4426,12 @@
       <c r="I40">
         <v>6</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="42">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4452,12 +4455,12 @@
       <c r="I41">
         <v>6</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4481,12 +4484,12 @@
       <c r="I42">
         <v>6</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4510,12 +4513,12 @@
       <c r="I43">
         <v>6</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4539,12 +4542,12 @@
       <c r="I44">
         <v>6</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="18">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4568,12 +4571,12 @@
       <c r="I45">
         <v>6</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="42">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4597,12 +4600,12 @@
       <c r="I46">
         <v>6</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="18">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4626,12 +4629,12 @@
       <c r="I47">
         <v>6</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4655,12 +4658,12 @@
       <c r="I48">
         <v>6</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4684,12 +4687,12 @@
       <c r="I49">
         <v>6</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4713,12 +4716,12 @@
       <c r="I50">
         <v>6</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="18">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4742,12 +4745,12 @@
       <c r="I51">
         <v>6</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="18">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4771,12 +4774,12 @@
       <c r="I52">
         <v>6</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="63">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4800,12 +4803,12 @@
       <c r="I53">
         <v>6</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="18">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4829,12 +4832,12 @@
       <c r="I54">
         <v>6</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4858,12 +4861,12 @@
       <c r="I55">
         <v>6</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="18">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4887,12 +4890,12 @@
       <c r="I56">
         <v>6</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4916,12 +4919,12 @@
       <c r="I57">
         <v>6</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4945,12 +4948,12 @@
       <c r="I58">
         <v>6</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="18">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4974,12 +4977,12 @@
       <c r="I59">
         <v>6</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="18">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5003,12 +5006,12 @@
       <c r="I60">
         <v>6</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5032,12 +5035,12 @@
       <c r="I61">
         <v>6</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5061,12 +5064,12 @@
       <c r="I62">
         <v>6</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="18">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5090,12 +5093,12 @@
       <c r="I63">
         <v>6</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="18">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5119,12 +5122,12 @@
       <c r="I64">
         <v>6</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="18">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5148,12 +5151,12 @@
       <c r="I65">
         <v>6</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="18">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5177,12 +5180,12 @@
       <c r="I66">
         <v>6</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="18">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5206,12 +5209,12 @@
       <c r="I67">
         <v>6</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="18">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5235,12 +5238,12 @@
       <c r="I68">
         <v>6</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="18">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5264,12 +5267,12 @@
       <c r="I69">
         <v>6</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="18">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5293,12 +5296,12 @@
       <c r="I70">
         <v>6</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="18">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5322,12 +5325,12 @@
       <c r="I71">
         <v>6</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="18">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5351,12 +5354,12 @@
       <c r="I72">
         <v>6</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="18">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5380,12 +5383,12 @@
       <c r="I73">
         <v>6</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="18">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5409,12 +5412,12 @@
       <c r="I74">
         <v>6</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="18">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5438,12 +5441,12 @@
       <c r="I75">
         <v>6</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="18">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5467,12 +5470,12 @@
       <c r="I76">
         <v>6</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="42">
-      <c r="A77" s="18">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5496,12 +5499,12 @@
       <c r="I77">
         <v>6</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="18">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5525,12 +5528,12 @@
       <c r="I78">
         <v>6</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J78" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="18">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5554,12 +5557,12 @@
       <c r="I79">
         <v>6</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="18">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5583,12 +5586,12 @@
       <c r="I80">
         <v>6</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="18">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5612,12 +5615,12 @@
       <c r="I81">
         <v>6</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="18">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5641,12 +5644,12 @@
       <c r="I82">
         <v>6</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="42">
-      <c r="A83" s="18">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5670,12 +5673,12 @@
       <c r="I83">
         <v>6</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="42">
-      <c r="A84" s="18">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5699,12 +5702,12 @@
       <c r="I84">
         <v>6</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J84" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="18">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5728,12 +5731,12 @@
       <c r="I85">
         <v>6</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="18">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5757,12 +5760,12 @@
       <c r="I86">
         <v>6</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="18">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5786,12 +5789,12 @@
       <c r="I87">
         <v>6</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="18">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5815,12 +5818,12 @@
       <c r="I88">
         <v>6</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="18">
+      <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5844,12 +5847,12 @@
       <c r="I89">
         <v>6</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="18">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5873,12 +5876,12 @@
       <c r="I90">
         <v>6</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="42">
-      <c r="A91" s="18">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5902,12 +5905,12 @@
       <c r="I91">
         <v>6</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="18">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5931,12 +5934,12 @@
       <c r="I92">
         <v>6</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="18">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5960,12 +5963,12 @@
       <c r="I93">
         <v>6</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="18">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5989,12 +5992,12 @@
       <c r="I94">
         <v>6</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="18">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -6018,12 +6021,12 @@
       <c r="I95">
         <v>6</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="18">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6047,12 +6050,12 @@
       <c r="I96">
         <v>6</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="18">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6076,12 +6079,12 @@
       <c r="I97">
         <v>6</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="18">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6105,12 +6108,12 @@
       <c r="I98">
         <v>6</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J98" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="18">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6134,12 +6137,12 @@
       <c r="I99">
         <v>6</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="J99" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="18">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6163,12 +6166,12 @@
       <c r="I100">
         <v>6</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="J100" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="18">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6192,12 +6195,12 @@
       <c r="I101">
         <v>6</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="18">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6221,12 +6224,12 @@
       <c r="I102">
         <v>6</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="18">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6250,12 +6253,12 @@
       <c r="I103">
         <v>6</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="18">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6279,12 +6282,12 @@
       <c r="I104">
         <v>6</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J104" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="42">
-      <c r="A105" s="18">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6308,12 +6311,12 @@
       <c r="I105">
         <v>6</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="J105" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="18">
+      <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -6337,12 +6340,12 @@
       <c r="I106">
         <v>6</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="18">
+      <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6366,12 +6369,12 @@
       <c r="I107">
         <v>6</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="18">
+      <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -6395,12 +6398,12 @@
       <c r="I108">
         <v>6</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="42">
-      <c r="A109" s="18">
+      <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -6424,12 +6427,12 @@
       <c r="I109">
         <v>6</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="18">
+      <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -6453,12 +6456,12 @@
       <c r="I110">
         <v>6</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="18">
+      <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -6482,12 +6485,12 @@
       <c r="I111">
         <v>6</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="18">
+      <c r="A112" s="17">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -6511,12 +6514,12 @@
       <c r="I112">
         <v>6</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J112" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="18">
+      <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -6540,12 +6543,12 @@
       <c r="I113">
         <v>6</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="18">
+      <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -6569,12 +6572,12 @@
       <c r="I114">
         <v>6</v>
       </c>
-      <c r="J114" s="10" t="s">
+      <c r="J114" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="18">
+      <c r="A115" s="17">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -6598,12 +6601,12 @@
       <c r="I115">
         <v>6</v>
       </c>
-      <c r="J115" s="10" t="s">
+      <c r="J115" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="42">
-      <c r="A116" s="18">
+      <c r="A116" s="17">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -6627,12 +6630,12 @@
       <c r="I116">
         <v>6</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="18">
+      <c r="A117" s="17">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -6656,12 +6659,12 @@
       <c r="I117">
         <v>6</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J117" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="42">
-      <c r="A118" s="18">
+      <c r="A118" s="17">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -6685,12 +6688,12 @@
       <c r="I118">
         <v>6</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="18">
+      <c r="A119" s="17">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -6714,12 +6717,12 @@
       <c r="I119">
         <v>6</v>
       </c>
-      <c r="J119" s="10" t="s">
+      <c r="J119" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="18">
+      <c r="A120" s="17">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -6743,12 +6746,12 @@
       <c r="I120">
         <v>6</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="18">
+      <c r="A121" s="17">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -6772,12 +6775,12 @@
       <c r="I121">
         <v>6</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J121" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="42">
-      <c r="A122" s="18">
+      <c r="A122" s="17">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6801,12 +6804,12 @@
       <c r="I122">
         <v>6</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="J122" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="18">
+      <c r="A123" s="17">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6830,12 +6833,12 @@
       <c r="I123">
         <v>6</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J123" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="18">
+      <c r="A124" s="17">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6859,37 +6862,37 @@
       <c r="I124">
         <v>6</v>
       </c>
-      <c r="J124" s="10" t="s">
+      <c r="J124" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="19">
+      <c r="A125" s="18">
         <v>124</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21">
-        <v>1</v>
-      </c>
-      <c r="E125" s="21">
-        <v>2</v>
-      </c>
-      <c r="F125" s="21">
-        <v>3</v>
-      </c>
-      <c r="G125" s="21">
-        <v>4</v>
-      </c>
-      <c r="H125" s="21">
-        <v>5</v>
-      </c>
-      <c r="I125" s="21">
-        <v>6</v>
-      </c>
-      <c r="J125" s="11" t="s">
+      <c r="C125" s="20"/>
+      <c r="D125" s="20">
+        <v>1</v>
+      </c>
+      <c r="E125" s="20">
+        <v>2</v>
+      </c>
+      <c r="F125" s="20">
+        <v>3</v>
+      </c>
+      <c r="G125" s="20">
+        <v>4</v>
+      </c>
+      <c r="H125" s="20">
+        <v>5</v>
+      </c>
+      <c r="I125" s="20">
+        <v>6</v>
+      </c>
+      <c r="J125" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6995,561 +6998,548 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="58">
         <f>C1</f>
         <v>0</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="59">
-        <f t="shared" ref="E9:J9" si="0">E1</f>
+      <c r="D9" s="59"/>
+      <c r="E9" s="58">
+        <f t="shared" ref="E9" si="0">E1</f>
         <v>0</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="59">
-        <f t="shared" ref="G9:J9" si="1">G1</f>
+      <c r="F9" s="59"/>
+      <c r="G9" s="58">
+        <f t="shared" ref="G9" si="1">G1</f>
         <v>0</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="59">
-        <f t="shared" ref="I9:J9" si="2">I1</f>
+      <c r="H9" s="59"/>
+      <c r="I9" s="58">
+        <f t="shared" ref="I9" si="2">I1</f>
         <v>0</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="48"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="51"/>
+      <c r="I10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="48"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="48"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="48"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="48"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="48"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="48"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="32" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="48"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="48"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="32" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="32" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="48"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="48"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="32" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="51"/>
+      <c r="I20" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="J20" s="35"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="55"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="48"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="48"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="48"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="48"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="55"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="63">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="66"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="66"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -7566,33 +7556,46 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7615,232 +7618,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="29">
+      <c r="D1" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="42"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <f>D2-D1</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <f>D5-D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <f>D8-D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <f>D11-D10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <f>D14-D13</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <f>D17-D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <f>D20-D19</f>
         <v>0</v>
       </c>

--- a/認知行動療法.xlsx
+++ b/認知行動療法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawasachito/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB03D2-FB66-9C48-8BF0-15B1818109AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3549A96A-11E1-E747-811A-9685BD4F8A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" activeTab="2" xr2:uid="{2C70A69D-1916-C84E-A3B5-B75A654A2724}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
   <si>
     <t>私はすべての点で有能でなければならない。</t>
   </si>
@@ -957,6 +957,79 @@
       <t>ハンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推論の誤り10のパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 全か無か思考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものごとを極端に捉え、100%でなければ失敗と考える</t>
+  </si>
+  <si>
+    <t>2. 一般化のしすぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たったひとつのよくないことを根拠に、すべてを判断</t>
+  </si>
+  <si>
+    <t>3. 心のフィルター</t>
+  </si>
+  <si>
+    <t>悲観的で、世の中や他人、自分のよい部分が見えない</t>
+  </si>
+  <si>
+    <t>4. マイナス化思考</t>
+  </si>
+  <si>
+    <t>すべてのものごとにマイナスの意味づけをしてしまう</t>
+  </si>
+  <si>
+    <t>5. 結論の飛躍</t>
+  </si>
+  <si>
+    <t>将来や他人の考えに対して、根拠なく悲観的な結論を出す</t>
+  </si>
+  <si>
+    <t>6. 拡大解釈&amp;過小評価</t>
+  </si>
+  <si>
+    <t>自分の失敗や短所は過大に、長所は過小に評価</t>
+  </si>
+  <si>
+    <t>推論の誤り</t>
+    <rPh sb="0" eb="2">
+      <t>スイロn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 感情的決めつけ</t>
+  </si>
+  <si>
+    <t>ものごとを理性的に考えず、感情だけで決めつける</t>
+  </si>
+  <si>
+    <t>8. すべき思考</t>
+  </si>
+  <si>
+    <t>自分や他人の行動に対し「~すべき」というルールを課す</t>
+  </si>
+  <si>
+    <t>9. レッテル貼り</t>
+  </si>
+  <si>
+    <t>自分や他人に対し、「○○人間」といったレッテルを貼る</t>
+  </si>
+  <si>
+    <t>10 個人化</t>
+  </si>
+  <si>
+    <t>関係のないことまで、自分のせいだと考えて、自己嫌悪に陥る</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,12 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,16 +1374,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,22 +1404,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1358,10 +1419,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,10 +1452,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2953,7 +3041,7 @@
       <c r="J2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>195</v>
       </c>
       <c r="M2" t="s">
@@ -3010,7 +3098,7 @@
       <c r="J3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="41"/>
+      <c r="L3" s="40"/>
       <c r="M3" t="s">
         <v>198</v>
       </c>
@@ -3065,7 +3153,7 @@
       <c r="J4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="40"/>
       <c r="M4" t="s">
         <v>199</v>
       </c>
@@ -3120,7 +3208,7 @@
       <c r="J5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="40"/>
       <c r="M5" t="s">
         <v>200</v>
       </c>
@@ -3175,7 +3263,7 @@
       <c r="J6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="40"/>
       <c r="M6" t="s">
         <v>201</v>
       </c>
@@ -3230,7 +3318,7 @@
       <c r="J7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="40"/>
       <c r="M7" t="s">
         <v>202</v>
       </c>
@@ -3285,7 +3373,7 @@
       <c r="J8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="40" t="s">
         <v>196</v>
       </c>
       <c r="M8" t="s">
@@ -3342,7 +3430,7 @@
       <c r="J9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="40"/>
       <c r="M9" t="s">
         <v>204</v>
       </c>
@@ -3397,7 +3485,7 @@
       <c r="J10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="41"/>
+      <c r="L10" s="40"/>
       <c r="M10" t="s">
         <v>205</v>
       </c>
@@ -3452,7 +3540,7 @@
       <c r="J11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="40" t="s">
         <v>206</v>
       </c>
       <c r="M11" t="s">
@@ -3509,7 +3597,7 @@
       <c r="J12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="40"/>
       <c r="M12" t="s">
         <v>208</v>
       </c>
@@ -3564,7 +3652,7 @@
       <c r="J13" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="40" t="s">
         <v>209</v>
       </c>
       <c r="M13" t="s">
@@ -3621,7 +3709,7 @@
       <c r="J14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="40"/>
       <c r="M14" t="s">
         <v>211</v>
       </c>
@@ -6981,11 +7069,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5BA6BA-A7FD-554A-BE9E-88357F29AABB}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A8"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6994,28 +7082,37 @@
     <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
     <col min="3" max="8" width="23.7109375" style="2" customWidth="1"/>
     <col min="9" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="1"/>
+    <col min="11" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="51.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" ht="21">
+      <c r="A1" s="46" t="s">
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="46"/>
-      <c r="B2" s="42" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="65"/>
+    </row>
+    <row r="2" spans="1:15" ht="21">
+      <c r="A2" s="47"/>
+      <c r="B2" s="56" t="s">
         <v>244</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -7042,10 +7139,18 @@
       <c r="J2" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21">
+      <c r="A3" s="47"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="32"/>
@@ -7054,10 +7159,18 @@
       <c r="H3" s="33"/>
       <c r="I3" s="32"/>
       <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21">
+      <c r="A4" s="47"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="34"/>
       <c r="D4" s="35"/>
       <c r="E4" s="34"/>
@@ -7066,10 +7179,18 @@
       <c r="H4" s="35"/>
       <c r="I4" s="34"/>
       <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21">
+      <c r="A5" s="47"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="34"/>
@@ -7078,10 +7199,18 @@
       <c r="H5" s="35"/>
       <c r="I5" s="34"/>
       <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21">
+      <c r="A6" s="47"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="34"/>
@@ -7090,10 +7219,18 @@
       <c r="H6" s="35"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21">
+      <c r="A7" s="47"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
@@ -7102,313 +7239,352 @@
       <c r="H7" s="35"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="45" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21">
+      <c r="A9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21">
+      <c r="A10" s="72"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21">
+      <c r="A11" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C11" s="44">
         <f>C1</f>
         <v>0</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58">
-        <f t="shared" ref="E9" si="0">E1</f>
+      <c r="D11" s="45"/>
+      <c r="E11" s="44">
+        <f t="shared" ref="E11:J11" si="0">E1</f>
         <v>0</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58">
-        <f t="shared" ref="G9" si="1">G1</f>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44">
+        <f t="shared" ref="G11:J11" si="1">G1</f>
         <v>0</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58">
-        <f t="shared" ref="I9" si="2">I1</f>
+      <c r="H11" s="45"/>
+      <c r="I11" s="44">
+        <f t="shared" ref="I11:J11" si="2">I1</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="46"/>
-      <c r="B10" s="31" t="s">
+      <c r="J11" s="45"/>
+      <c r="N11" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21">
+      <c r="A12" s="47"/>
+      <c r="B12" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="41" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="41" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="41" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="46"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="46"/>
-      <c r="B12" s="38" t="s">
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="47"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:15" ht="21">
+      <c r="A14" s="47"/>
+      <c r="B14" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="41" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="41" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="41" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="46"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="46"/>
-      <c r="B14" s="38" t="s">
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:15" ht="21">
+      <c r="A16" s="47"/>
+      <c r="B16" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="41" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="41" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="41" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="46"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="46"/>
-      <c r="B16" s="38" t="s">
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="47"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="21">
+      <c r="A18" s="47"/>
+      <c r="B18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="41" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="41" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="41" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="46"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="46"/>
-      <c r="B18" s="38" t="s">
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="47"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="47"/>
+      <c r="B20" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="41" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="41" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="41" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="46"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="46"/>
-      <c r="B20" s="39" t="s">
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="47"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="47"/>
+      <c r="B22" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="41" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="41" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="41" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="47"/>
-      <c r="B21" s="11" t="s">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="48"/>
+      <c r="B23" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="45" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21">
+      <c r="A24" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D24" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="46"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-    </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="46"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="66"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
@@ -7418,9 +7594,8 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="66"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
@@ -7430,9 +7605,8 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="66"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -7441,95 +7615,174 @@
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="21">
+    <row r="28" spans="1:10">
       <c r="A28" s="47"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="49"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="48"/>
+      <c r="B30" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-    </row>
-    <row r="29" spans="1:10" ht="63">
-      <c r="A29" s="40" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="1:10" ht="63">
+      <c r="A31" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="49" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="55"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="55"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="97">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
@@ -7537,65 +7790,22 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7618,10 +7828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="29" t="s">
         <v>235</v>
       </c>
@@ -7630,8 +7840,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="30" t="s">
         <v>232</v>
       </c>
@@ -7640,8 +7850,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="30" t="s">
         <v>233</v>
       </c>
@@ -7651,10 +7861,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="29" t="s">
         <v>235</v>
       </c>
@@ -7663,8 +7873,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="30" t="s">
         <v>232</v>
       </c>
@@ -7673,8 +7883,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="30" t="s">
         <v>233</v>
       </c>
@@ -7684,10 +7894,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="29" t="s">
         <v>235</v>
       </c>
@@ -7696,8 +7906,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="30" t="s">
         <v>232</v>
       </c>
@@ -7706,8 +7916,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="30" t="s">
         <v>233</v>
       </c>
@@ -7717,10 +7927,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="29" t="s">
         <v>235</v>
       </c>
@@ -7729,8 +7939,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="30" t="s">
         <v>232</v>
       </c>
@@ -7739,8 +7949,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="62"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="30" t="s">
         <v>233</v>
       </c>
@@ -7750,10 +7960,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="29" t="s">
         <v>235</v>
       </c>
@@ -7762,8 +7972,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="30" t="s">
         <v>232</v>
       </c>
@@ -7772,8 +7982,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="30" t="s">
         <v>233</v>
       </c>
@@ -7783,10 +7993,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="29" t="s">
         <v>235</v>
       </c>
@@ -7795,8 +8005,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="61"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="30" t="s">
         <v>232</v>
       </c>
@@ -7805,8 +8015,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="30" t="s">
         <v>233</v>
       </c>
@@ -7816,10 +8026,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="29" t="s">
         <v>235</v>
       </c>
@@ -7828,8 +8038,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="61"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="30" t="s">
         <v>232</v>
       </c>
@@ -7838,8 +8048,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="30" t="s">
         <v>233</v>
       </c>
